--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.22836170104569</v>
+        <v>9995.443978508107</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.22836170104569</v>
+        <v>9995.443978508107</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91254.43286910531</v>
+        <v>6490636.234687176</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91254.43286910531</v>
+        <v>6490636.234687176</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609719178.67905</v>
+        <v>58295567.35438065</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16783.9053403252</v>
+        <v>1348938.948644657</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32498.31572779821</v>
+        <v>2528000.328846289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48289.10434947239</v>
+        <v>3707061.70904792</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65147.6616005944</v>
+        <v>4810057.472302946</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81280.06033643194</v>
+        <v>5986879.280770454</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97412.45907226946</v>
+        <v>7163701.089237961</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113544.857808107</v>
+        <v>8340522.897705459</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129677.2565439445</v>
+        <v>9517344.706172958</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146512.4572562434</v>
+        <v>10622377.63329949</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162641.8422903789</v>
+        <v>11799199.44176699</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178771.2273245144</v>
+        <v>12976021.25023449</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194900.6123586499</v>
+        <v>14152843.05870199</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211029.9973927854</v>
+        <v>15329664.86716951</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227865.9156531085</v>
+        <v>16434840.58635289</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246741.3764116247</v>
+        <v>17278855.94305592</v>
       </c>
     </row>
   </sheetData>
